--- a/server/Exported_excel.xlsx
+++ b/server/Exported_excel.xlsx
@@ -16727,12 +16727,12 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SHIV SAXENA</t>
+          <t>RAJ BHASKAR</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2022A3PS0510</t>
+          <t>2022A3PS0381</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -16744,12 +16744,12 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>RAJ BHASKAR</t>
+          <t>SRIHARI MUKUNDAN MADHAVAN</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2022A3PS0381</t>
+          <t>2022A3PS0027</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -16761,12 +16761,12 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SRIHARI MUKUNDAN MADHAVAN</t>
+          <t>RUDRA SUBODH MANTRI</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2022A3PS0027</t>
+          <t>2022A3PS0209</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -16778,12 +16778,12 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>RUDRA SUBODH MANTRI</t>
+          <t>ASHIS MISHRA</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>2022A3PS0209</t>
+          <t>2022A3PS0410</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -16795,12 +16795,12 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>ASHIS MISHRA</t>
+          <t>SHUBHAM SINGH</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>2022A3PS0410</t>
+          <t>2022A3PS0376</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -16812,12 +16812,12 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SHUBHAM SINGH</t>
+          <t>RAUNAK AGRAWAL</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2022A3PS0376</t>
+          <t>2022A3PS0364</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -16829,12 +16829,12 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>RAUNAK AGRAWAL</t>
+          <t>KRRISH BANSAL</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2022A3PS0364</t>
+          <t>2022A3PS0420</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -16846,12 +16846,12 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>KRRISH BANSAL</t>
+          <t>NAVEEN BISHNOI</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2022A3PS0420</t>
+          <t>2022A3PS0454</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -16863,12 +16863,12 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>NAVEEN BISHNOI</t>
+          <t>HARSH GOSWAMI</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2022A3PS0454</t>
+          <t>2022A3PS1217</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -16880,12 +16880,12 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>HARSH GOSWAMI</t>
+          <t>SAATVIK SAMARTH</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2022A3PS1217</t>
+          <t>2022A3PS0455</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -16897,12 +16897,12 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SAATVIK SAMARTH</t>
+          <t>DEVANSH GOEL</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2022A3PS0455</t>
+          <t>2022A3PS0457</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -16914,12 +16914,12 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>DEVANSH GOEL</t>
+          <t>VISHWAM AGGARWAL</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2022A3PS0457</t>
+          <t>2022A3PS1224</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -16931,12 +16931,12 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>VISHWAM AGGARWAL</t>
+          <t>SIDDHARTH GANESH</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2022A3PS1224</t>
+          <t>2022A3PS1198</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -16948,12 +16948,12 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SIDDHARTH GANESH</t>
+          <t>SHIVAM VIJ</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2022A3PS1198</t>
+          <t>2022A3PS1213</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -16965,12 +16965,12 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SHIVAM VIJ</t>
+          <t>K MAHITH REDDY</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2022A3PS1213</t>
+          <t>2022A3PS1194</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -16982,12 +16982,12 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>K MAHITH REDDY</t>
+          <t>MADHAV KRISHNA</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2022A3PS1194</t>
+          <t>2022A3PS0508</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -16999,12 +16999,12 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>MADHAV KRISHNA</t>
+          <t>SHREYANS SINGHAL</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2022A3PS0508</t>
+          <t>2022A3PS1197</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -17016,12 +17016,12 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SHREYANS SINGHAL</t>
+          <t>KRISH SHAH</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2022A3PS1197</t>
+          <t>2022A3PS0377</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -17033,12 +17033,12 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>KRISH SHAH</t>
+          <t>YASH PATIL</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2022A3PS0377</t>
+          <t>2022A3PS0437</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -17050,12 +17050,12 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>YASH PATIL</t>
+          <t>ADITHYA KRISHNA SRIDHARAN</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2022A3PS0437</t>
+          <t>2022A3PS0402</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -17067,12 +17067,12 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>ADITHYA KRISHNA SRIDHARAN</t>
+          <t>AARYA VARDHAN SHANDILYA</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2022A3PS0402</t>
+          <t>2022A3PS1734</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -17084,12 +17084,12 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>AARYA VARDHAN SHANDILYA</t>
+          <t>KUMAR KRISHNA</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2022A3PS1734</t>
+          <t>2022A3PS0392</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -17101,12 +17101,12 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>KUMAR KRISHNA</t>
+          <t>NIKHIL HANDA</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2022A3PS0392</t>
+          <t>2022A3PS1214</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -17118,12 +17118,12 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>NIKHIL HANDA</t>
+          <t>SAMARTH SINGH</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2022A3PS1214</t>
+          <t>2022A3PS0458</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -17135,12 +17135,12 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SAMARTH SINGH</t>
+          <t>YASH KOTHARI</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2022A3PS0458</t>
+          <t>2022A3PS0405</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -17152,12 +17152,12 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>YASH KOTHARI</t>
+          <t>KESHAV JALAN</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>2022A3PS0405</t>
+          <t>2022A3PS0447</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -17169,12 +17169,12 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>KESHAV JALAN</t>
+          <t>SHRISH GUPTA</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2022A3PS0447</t>
+          <t>2022A3PS1219</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -17186,12 +17186,12 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SHRISH GUPTA</t>
+          <t>ARNAV GEET VERMA</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2022A3PS1219</t>
+          <t>2022A3PS0430</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -17203,12 +17203,12 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>ARNAV GEET VERMA</t>
+          <t>ARINDAM NATH</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2022A3PS0430</t>
+          <t>2022A3PS0445</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -17220,12 +17220,12 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>ARINDAM NATH</t>
+          <t>UDBHAV DWIVEDI</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>2022A3PS0445</t>
+          <t>2022A3PS0483</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -17237,12 +17237,12 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>UDBHAV DWIVEDI</t>
+          <t>SHUBH SINGHVI</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2022A3PS0483</t>
+          <t>2022A3PS0357</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -17254,12 +17254,12 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SHUBH SINGHVI</t>
+          <t>PRAKHYAT VIVEK</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2022A3PS0357</t>
+          <t>2022A3PS0478</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -17271,12 +17271,12 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRAKHYAT VIVEK</t>
+          <t>SHRAVAN SHARMA</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>2022A3PS0478</t>
+          <t>2022A3PS0327</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -17288,12 +17288,12 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SHRAVAN SHARMA</t>
+          <t>VYANKATESH MANDHANE</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2022A3PS0327</t>
+          <t>2022A3PS0451</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -17305,12 +17305,12 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>VYANKATESH MANDHANE</t>
+          <t>KAVISH CHANDRA</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2022A3PS0451</t>
+          <t>2022A3PS0523</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -17322,12 +17322,12 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>KAVISH CHANDRA</t>
+          <t>RAMSANJIVE L</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2022A3PS0523</t>
+          <t>2022A3PS0475</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -17339,12 +17339,12 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>RAMSANJIVE L</t>
+          <t>DHRUV SINGH</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2022A3PS0475</t>
+          <t>2022A3PS0282</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -17356,12 +17356,12 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>DHRUV SINGH</t>
+          <t>DHRISH BHANSALI</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2022A3PS0282</t>
+          <t>2022A3PS0498</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -17373,12 +17373,12 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>DHRISH BHANSALI</t>
+          <t>SREE VIGHNESH JANAPAREDDY</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2022A3PS0498</t>
+          <t>2022A3PS0441</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -17390,12 +17390,12 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SREE VIGHNESH JANAPAREDDY</t>
+          <t>TANISH DHANKHAR</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2022A3PS0441</t>
+          <t>2022A3PS0476</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -17407,12 +17407,12 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TANISH DHANKHAR</t>
+          <t>TANISH TANEJA</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2022A3PS0476</t>
+          <t>2022A3PS0378</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -17424,12 +17424,12 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>TANISH TANEJA</t>
+          <t>VATSAL HEDA</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2022A3PS0378</t>
+          <t>2022A3PS1205</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -17441,12 +17441,12 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>VATSAL HEDA</t>
+          <t>HRISHIKESH TOTLA</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2022A3PS1205</t>
+          <t>2022A3PS0465</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -17458,12 +17458,12 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>HRISHIKESH TOTLA</t>
+          <t>RAKSHIT SAKHUJA</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>2022A3PS0465</t>
+          <t>2022A3PS0471</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -17475,12 +17475,12 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>RAKSHIT SAKHUJA</t>
+          <t>HARSHAL JAIN</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2022A3PS0471</t>
+          <t>2022A3PS0425</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -17492,12 +17492,12 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>HARSHAL JAIN</t>
+          <t>VIPIN KUMAR</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>2022A3PS0425</t>
+          <t>2022A3PS1208</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -17509,12 +17509,12 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>VIPIN KUMAR</t>
+          <t>UTKARSH SINGH</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>2022A3PS1208</t>
+          <t>2022A3PS0389</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -17526,12 +17526,12 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>UTKARSH SINGH</t>
+          <t>ADIT MITTAL</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2022A3PS0389</t>
+          <t>2022A3PS0484</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -17543,12 +17543,12 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>ADIT MITTAL</t>
+          <t>AKSHIT GARG</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2022A3PS0484</t>
+          <t>2022A3PS0429</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -17560,12 +17560,12 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>AKSHIT GARG</t>
+          <t>VEDANT MATHUR</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2022A3PS0429</t>
+          <t>2022A3PS0375</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -17577,12 +17577,12 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>VEDANT MATHUR</t>
+          <t>SIDDHARTH GARG</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2022A3PS0375</t>
+          <t>2022A3PS0329</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -17594,12 +17594,12 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>SIDDHARTH GARG</t>
+          <t>ANIRUDDHA DESHPANDE</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2022A3PS0329</t>
+          <t>2022A3PS1195</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -17611,12 +17611,12 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>ANIRUDDHA DESHPANDE</t>
+          <t>AABIR SHUBHAJIT SARKAR</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2022A3PS1195</t>
+          <t>2022A3PS0473</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -17628,12 +17628,12 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>AABIR SHUBHAJIT SARKAR</t>
+          <t>SHUBHRANSHU DEV KODWANI</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2022A3PS0473</t>
+          <t>2022A3PS0526</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -17645,12 +17645,12 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>SHUBHRANSHU DEV KODWANI</t>
+          <t>KAUSTUBHSINGH JAMADAR</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2022A3PS0526</t>
+          <t>2022A3PS0384</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -17662,12 +17662,12 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>KAUSTUBHSINGH JAMADAR</t>
+          <t>ADITYA PATHAK</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2022A3PS0384</t>
+          <t>2022A3PS1231</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -17679,12 +17679,12 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>ADITYA PATHAK</t>
+          <t>SHIKHAR AGARWAL</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2022A3PS1231</t>
+          <t>2022A3PS0528</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -17696,12 +17696,12 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>SHIKHAR AGARWAL</t>
+          <t>VARUN SHASTRY</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2022A3PS0528</t>
+          <t>2022A3PS0399</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -17713,12 +17713,12 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>VARUN SHASTRY</t>
+          <t>AYUSH AGRAWAL</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2022A3PS0399</t>
+          <t>2022A3PS1199</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -17730,12 +17730,12 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>AYUSH AGRAWAL</t>
+          <t>UTKARSH THANVI</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2022A3PS1199</t>
+          <t>2022A3PS0493</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -17747,12 +17747,12 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>UTKARSH THANVI</t>
+          <t>AYUSH SINGLA</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2022A3PS0493</t>
+          <t>2022A3PS1234</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -17764,12 +17764,12 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>AYUSH SINGLA</t>
+          <t>HARSHIL JESWANI</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>2022A3PS1234</t>
+          <t>2022A3PS1207</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -17781,12 +17781,12 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>HARSHIL JESWANI</t>
+          <t>PARTH YOGESHWAR SONWANE</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2022A3PS1207</t>
+          <t>2022A3PS0023</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -17798,12 +17798,12 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>PARTH YOGESHWAR SONWANE</t>
+          <t>TANUSH SRIVASTAVA</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>2022A3PS0023</t>
+          <t>2022A3PS0504</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -17815,12 +17815,12 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>TANUSH SRIVASTAVA</t>
+          <t>VEENA RAJESH</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2022A3PS0504</t>
+          <t>2022A3PS0034</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -17832,12 +17832,12 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>VEENA RAJESH</t>
+          <t>ARNAV JITENDRA NEVGI</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2022A3PS0034</t>
+          <t>2022A3PS0022</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -17849,12 +17849,12 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>ARNAV JITENDRA NEVGI</t>
+          <t>DHRUV GUPTA</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2022A3PS0022</t>
+          <t>2022A3PS1206</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -17866,12 +17866,12 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>DHRUV GUPTA</t>
+          <t>ADYA SRIVASTAVA</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2022A3PS1206</t>
+          <t>2022A3PS0467</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -17883,12 +17883,12 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>ADYA SRIVASTAVA</t>
+          <t>SREERAM R</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2022A3PS0467</t>
+          <t>2022A3PS1229</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -17900,12 +17900,12 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>SREERAM R</t>
+          <t>SHIV SAXENA</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2022A3PS1229</t>
+          <t>2022A3PS0510</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
